--- a/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_磐石组.xlsx
+++ b/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_磐石组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 3.1.3.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>No</t>
   </si>
@@ -159,7 +159,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>拓展员数据double</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋伟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝数据列表添加城市列和查询条件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>王向阳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王向阳、钱文博</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -834,7 +850,7 @@
   <dimension ref="A1:T218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O3"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -992,7 +1008,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="12"/>
       <c r="J3" s="14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>29</v>
@@ -1017,20 +1033,42 @@
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="B4" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="13">
+        <v>42522</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="H4" s="13"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="14"/>
+      <c r="J4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="O4" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
@@ -1041,20 +1079,42 @@
       <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="B5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="13">
+        <v>42521</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="14"/>
+      <c r="J5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="O5" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>

--- a/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_磐石组.xlsx
+++ b/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_磐石组.xlsx
@@ -159,10 +159,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>拓展员数据double</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>宋伟</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -176,6 +172,10 @@
   </si>
   <si>
     <t>王向阳、钱文博</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展员房东数据double</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -850,7 +850,7 @@
   <dimension ref="A1:T218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1008,7 +1008,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="12"/>
       <c r="J3" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>29</v>
@@ -1034,7 +1034,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>35</v>
@@ -1054,7 +1054,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="12"/>
       <c r="J4" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>29</v>
@@ -1080,7 +1080,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>34</v>
@@ -1100,7 +1100,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="12"/>
       <c r="J5" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>29</v>
